--- a/sqld/잡스케줄러.xlsx
+++ b/sqld/잡스케줄러.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jooladen\Desktop\project\study_source\sqld\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8F42E81-195F-4DBD-A19C-C3DB6E8D7258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{374F11EE-ADD2-45CC-B4A9-19AF5AA1F07F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14305" xr2:uid="{9BA98794-BE2C-4D23-A9D0-BA26BB31FA7B}"/>
   </bookViews>
@@ -772,6 +772,1122 @@
             <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
             <a:t>.</a:t>
           </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>284672</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>129396</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4537494" cy="10425931"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A8D1684-5A08-EB85-8EC1-B8D06A998E32}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7875917" y="327804"/>
+          <a:ext cx="4537494" cy="10425931"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>BEGIN</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  SYS.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1" i="1" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>DBMS_SCHEDULER.DROP_JOB</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    (job_name  =&gt; 'TEST_USER.MY_JOB2');</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>END;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>/</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>BEGIN</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  SYS.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1" i="1" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>DBMS_SCHEDULER.CREATE_JOB</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>       job_name        =&gt; 'TEST_USER.MY_JOB2'</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>      ,start_date      =&gt; TO_TIMESTAMP_TZ('2024/07/10 19:19:30.193000 +09:00','yyyy/mm/dd hh24:mi:ss.ff tzr')</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>      ,repeat_interval =&gt; 'FREQ=SECONDLY; INTERVAL=30'</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>      ,end_date        =&gt; NULL</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>      ,job_class       =&gt; 'DEFAULT_JOB_CLASS'</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>      ,job_type        =&gt; 'PLSQL_BLOCK'</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>      ,job_action      =&gt; 'BEGIN my_procedure; END;'</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>      ,comments        =&gt; NULL</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>);</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  SYS.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1" i="1" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>DBMS_SCHEDULER.SET_ATTRIBUTE</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    ( name      =&gt; 'TEST_USER.MY_JOB2'</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>     ,attribute =&gt; 'RESTARTABLE'</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>     ,value     =&gt; FALSE);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  SYS.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1" i="1" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>DBMS_SCHEDULER.SET_ATTRIBUTE</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    ( name      =&gt; 'TEST_USER.MY_JOB2'</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>     ,attribute =&gt; 'LOGGING_LEVEL'</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>     ,value     =&gt; SYS.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1" i="1" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>DBMS_SCHEDULER.LOGGING_OFF</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  SYS.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1" i="1" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>DBMS_SCHEDULER.SET_ATTRIBUTE_NULL</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    ( name      =&gt; 'TEST_USER.MY_JOB2'</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>     ,attribute =&gt; 'MAX_FAILURES');</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  SYS.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1" i="1" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>DBMS_SCHEDULER.SET_ATTRIBUTE_NULL</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    ( name      =&gt; 'TEST_USER.MY_JOB2'</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>     ,attribute =&gt; 'MAX_RUNS');</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  BEGIN</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    SYS.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1" i="1" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>DBMS_SCHEDULER.SET_ATTRIBUTE</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>      ( name      =&gt; 'TEST_USER.MY_JOB2'</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>       ,attribute =&gt; 'STOP_ON_WINDOW_CLOSE'</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>       ,value     =&gt; FALSE);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  EXCEPTION</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="1" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>-- could fail if program is of type EXECUTABLE...</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    WHEN OTHERS THEN</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>      NULL;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  END;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  SYS.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1" i="1" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>DBMS_SCHEDULER.SET_ATTRIBUTE</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    ( name      =&gt; 'TEST_USER.MY_JOB2'</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>     ,attribute =&gt; 'JOB_PRIORITY'</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>     ,value     =&gt; 3);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  SYS.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1" i="1" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>DBMS_SCHEDULER.SET_ATTRIBUTE_NULL</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    ( name      =&gt; 'TEST_USER.MY_JOB2'</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>     ,attribute =&gt; 'SCHEDULE_LIMIT');</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  SYS.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1" i="1" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>DBMS_SCHEDULER.SET_ATTRIBUTE</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    ( name      =&gt; 'TEST_USER.MY_JOB2'</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>     ,attribute =&gt; 'AUTO_DROP'</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>     ,value     =&gt; TRUE);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  SYS.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1" i="1" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>DBMS_SCHEDULER.ENABLE</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    (name                  =&gt; 'TEST_USER.MY_JOB2');</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>END;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>/</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
           <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -6067,7 +7183,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.65" x14ac:dyDescent="0.3"/>
   <sheetData/>
